--- a/Data/EC/NIT-9011052609.xlsx
+++ b/Data/EC/NIT-9011052609.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA72A8B-4E89-419E-89CA-1860C62CFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFE40C7-FA31-4207-9D21-F16A5DA07197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3D7544A-6B11-4673-8F36-F0964C11FE5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC26AE4C-E082-4221-A481-6585F9CE81CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,39 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044928283</t>
+  </si>
+  <si>
+    <t>GENESIS TORRES RICO</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>1002319881</t>
   </si>
   <si>
@@ -81,39 +114,6 @@
   </si>
   <si>
     <t>2303</t>
-  </si>
-  <si>
-    <t>1044928283</t>
-  </si>
-  <si>
-    <t>GENESIS TORRES RICO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375199E7-9D91-BC08-D693-4A8D3454D608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E7F33D-CCE0-D7BD-BBBD-E0415FCAFB6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09408C9-1D5F-41D1-AC85-2ECB4D1853C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8925E843-3CB4-4C78-821C-2C31BE5B064D}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,237 +1056,237 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34666</v>
+        <v>38000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>16000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>34666</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="24">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="G26" s="24">
         <v>1500000</v>
@@ -1295,7 +1295,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
         <v>34</v>
       </c>

--- a/Data/EC/NIT-9011052609.xlsx
+++ b/Data/EC/NIT-9011052609.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFE40C7-FA31-4207-9D21-F16A5DA07197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3897735-AEF5-4EAC-B95F-91098FA9CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC26AE4C-E082-4221-A481-6585F9CE81CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20878AFA-FA31-4A32-A0C9-80D862C75000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,55 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1002319881</t>
+  </si>
+  <si>
+    <t>KEIVER BOSSIO BALLESTEROS</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1050952836</t>
+  </si>
+  <si>
+    <t>CINDY MILENA LARA ESPITALETA</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>1044928283</t>
   </si>
   <si>
     <t>GENESIS TORRES RICO</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1002319881</t>
-  </si>
-  <si>
-    <t>KEIVER BOSSIO BALLESTEROS</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1050952836</t>
-  </si>
-  <si>
-    <t>CINDY MILENA LARA ESPITALETA</t>
-  </si>
-  <si>
-    <t>2303</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E7F33D-CCE0-D7BD-BBBD-E0415FCAFB6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842BB9FB-1375-2B13-2A80-F0638E669C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8925E843-3CB4-4C78-821C-2C31BE5B064D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB7CC7-F2EF-453B-8946-8EC527E677DB}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,237 +1056,237 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>38000</v>
+        <v>34666</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>16000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>34666</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="24">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="G26" s="24">
         <v>1500000</v>
@@ -1295,7 +1295,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="32" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="32" t="s">
         <v>34</v>
       </c>
